--- a/medicine/Enfance/Frédéric_du_Bus/Frédéric_du_Bus.xlsx
+++ b/medicine/Enfance/Frédéric_du_Bus/Frédéric_du_Bus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_du_Bus</t>
+          <t>Frédéric_du_Bus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric du Bus de Warnaffe, dit duBus, né le 11 novembre 1963 à Bruxelles (province de Brabant), est un dessinateur et humoriste belge. Il est à la fois caricaturiste (Pan, La Dernière Heure - Les Sports, etc.), auteur de bande dessinée et illustrateur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_du_Bus</t>
+          <t>Frédéric_du_Bus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric du Bus naît le 11 novembre 1963 à Bruxelles[1] . 
-Dans la presse
-duBus exerce comme caricaturiste à l'hebdomadaire satirique Pan de 1988 à 2001, Le Soir (sports et Soir junior), Gazette de Liége, Le Vif/L'Express[1]. Entre 2000 et 2010, il est collaborateur hebdomadaire à Télémoustique (les Télé-Toons) et Télé Pocket avec des dessins en rapport avec l'actualité[1]. Il est le dessinateur quotidien de La Dernière Heure - Les Sports[2] depuis février 2002 et de La Libre Belgique[2] depuis 2003. Il fournit en outre une planche chaque semaine pour l'hebdomadaire Le Soir Magazine[2],[1] depuis 2010.
-Il remporte le Press Cartoon Belgium du meilleur dessin de presse en 2013[3] ainsi qu'en 2023[4]. Ses dessins et planches sont compilés en albums aux éditions Luc Pire, La Renaissance du livre et Kennes. Il est également membre du collectif et du site web The Cartoonist, réunissant des dessinateurs belges de presse, créé par Marec, où leurs travaux sont mis à la disposition du public[5],[6].
-Illustrateur pour enfants
-À partir de 1988, il illustre une dizaine de livres pour enfants dont Léonie dévore les livres (Casterman) Prix Québec-Wallonie-Bruxelles de littérature de jeunesse en 1999[7],[8]. Par deux fois, il a été sélectionné à la Foire du livre de jeunesse de Bologne[réf. nécessaire] et il a reçu le prix « illustrateur de l'année » décerné par l'UNICEF en 1993[réf. nécessaire]. 
-Il réalise également des illustrations pour la presse enfantine (Dauphin, Tremplin, J'aime lire, Les Clés de l'actualité junior…)[1]. 
-Au théâtre
-Il est l'auteur de quelques sketches pour La Revue des Galeries au Théâtre royal des Galeries en 2001 et 2002.
-Sur les ondes
-En 1996, il est collaborateur hebdomadaire de l'émission de télévision Y'en aura pour tout le monde d'Hervé Meillon sur RTL TVI.
-De 2007 à 2010, il crée et anime sur Bel RTL avec André Lamy Votez pour moi[9], une émission satirique quotidienne qui parodie l'actualité. il rédige de nombreuses lettres et billets d’humour, notamment sur La Première[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric du Bus naît le 11 novembre 1963 à Bruxelles . 
 </t>
         </is>
       </c>
@@ -535,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_du_Bus</t>
+          <t>Frédéric_du_Bus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,19 +553,175 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dans la presse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">duBus exerce comme caricaturiste à l'hebdomadaire satirique Pan de 1988 à 2001, Le Soir (sports et Soir junior), Gazette de Liége, Le Vif/L'Express. Entre 2000 et 2010, il est collaborateur hebdomadaire à Télémoustique (les Télé-Toons) et Télé Pocket avec des dessins en rapport avec l'actualité. Il est le dessinateur quotidien de La Dernière Heure - Les Sports depuis février 2002 et de La Libre Belgique depuis 2003. Il fournit en outre une planche chaque semaine pour l'hebdomadaire Le Soir Magazine, depuis 2010.
+Il remporte le Press Cartoon Belgium du meilleur dessin de presse en 2013 ainsi qu'en 2023. Ses dessins et planches sont compilés en albums aux éditions Luc Pire, La Renaissance du livre et Kennes. Il est également membre du collectif et du site web The Cartoonist, réunissant des dessinateurs belges de presse, créé par Marec, où leurs travaux sont mis à la disposition du public,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frédéric_du_Bus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_du_Bus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1988, il illustre une dizaine de livres pour enfants dont Léonie dévore les livres (Casterman) Prix Québec-Wallonie-Bruxelles de littérature de jeunesse en 1999,. Par deux fois, il a été sélectionné à la Foire du livre de jeunesse de Bologne[réf. nécessaire] et il a reçu le prix « illustrateur de l'année » décerné par l'UNICEF en 1993[réf. nécessaire]. 
+Il réalise également des illustrations pour la presse enfantine (Dauphin, Tremplin, J'aime lire, Les Clés de l'actualité junior…). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frédéric_du_Bus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_du_Bus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur de quelques sketches pour La Revue des Galeries au Théâtre royal des Galeries en 2001 et 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frédéric_du_Bus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_du_Bus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sur les ondes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996, il est collaborateur hebdomadaire de l'émission de télévision Y'en aura pour tout le monde d'Hervé Meillon sur RTL TVI.
+De 2007 à 2010, il crée et anime sur Bel RTL avec André Lamy Votez pour moi, une émission satirique quotidienne qui parodie l'actualité. il rédige de nombreuses lettres et billets d’humour, notamment sur La Première.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frédéric_du_Bus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_du_Bus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publications
-Mon pauvre duBus ! (recueil de caricatures), Éditions Luc Pire, 1998  (ISBN 9782930088884).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mon pauvre duBus ! (recueil de caricatures), Éditions Luc Pire, 1998  (ISBN 9782930088884).
 Arc-en-ciel, mon mari ! (recueil de caricatures), Luc Pire, 2001  (ISBN 9782874150326).
 Télé Academy (recueil de la BD Télescopes), Luc Pire, 2004.
 La Loi des séries  (recueil de caricatures), Luc Pire, 2007.
 Votez pour moi (recueil de caricatures), RTL Éditions, 2008.
 Votez (encore) pour moi (recueil de caricatures), RTL Éditions, 2009.
-La Main aux urnes[10] (recueil de caricatures), La Renaissance du livre, 2012  (ISBN 9782507050610).
+La Main aux urnes (recueil de caricatures), La Renaissance du livre, 2012  (ISBN 9782507050610).
 Correspondance duBus (recueil de caricatures), La Renaissance du livre, 2013.
 Blackout (recueil de caricatures), La Renaissance du livre, 2014  (ISBN 9782507052492).
 Trous de balles, La Renaissance du livre, 2015  (ISBN 9782507053567).
@@ -571,11 +730,45 @@
 On s'en bat les c…, La Renaissance du livre, coll. « Humour », 2018.   (ISBN 978-2507056056)
 Noir jaune rouge (vert), La Renaissance du livre, 2019.  (ISBN 978-2507056520)
 Le Monde d'après, La Renaissance du livre, 2020.  (ISBN 978-2507056858)
-Débordés[11],[12], Kennes Éditions, 2021  (ISBN 978-2-380-75120-8).
-Ça va chauffer[13], Kennes Éditions, 2021  (ISBN 978-2-380-75801-6)
-DuBus prend le pouvoir, Kennes Éditions, 2023  (ISBN 9782380759372)
-Livres pour enfants
-Léonie dévore les livres (texte de Laurence Herbert), Casterman, 1988  (ISBN 9782203398054).
+Débordés Kennes Éditions, 2021  (ISBN 978-2-380-75120-8).
+Ça va chauffer, Kennes Éditions, 2021  (ISBN 978-2-380-75801-6)
+DuBus prend le pouvoir, Kennes Éditions, 2023  (ISBN 9782380759372)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frédéric_du_Bus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A9d%C3%A9ric_du_Bus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Léonie dévore les livres (texte de Laurence Herbert), Casterman, 1988  (ISBN 9782203398054).
 L'Âne et la grenouille (texte de Bernard Giraudeau), Nathan, 1989  (ISBN 9782092782422).
 La Nuit des grottes (texte de Marie-Aude Murail), Nathan, 1990   (ISBN 9782092741825).
 Le Facteur pigeon (texte de Bernard Giraudeau), Nathan, 1991  (ISBN 9782092803509).
